--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BioASQ_UIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D10534-674D-444D-BE1B-2081A1D7D29B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B1396C8-2CE1-4236-A8DC-F0AB690C7C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -468,14 +468,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="28.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -571,7 +568,7 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I2">
         <v>0.5</v>
@@ -642,7 +639,7 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -713,7 +710,7 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>1</v>
